--- a/medicine/Mort/Mémorial_de_Coudehard-Montormel/Mémorial_de_Coudehard-Montormel.xlsx
+++ b/medicine/Mort/Mémorial_de_Coudehard-Montormel/Mémorial_de_Coudehard-Montormel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_de_Coudehard-Montormel</t>
+          <t>Mémorial_de_Coudehard-Montormel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mémorial de Coudehard-Montormel ou simplement mémorial de Montormel est un musée d'histoire situé sur le mont Ormel, dans les communes de Coudehard et de Mont-Ormel dans le département de l'Orne et la région Normandie. Il est spécialement consacré à l'histoire de la bataille de la poche de Falaise (ou poche de Falaise-Chambois), dernier épisode de la bataille de Normandie.
 Il s'agit en fait d'un espace muséographique situé très exactement au sommet de la cote 262, là où s'est officiellement fermée la poche de Falaise, le 21 août 1944, ceci expliquant le fait que le musée soit situé en rase campagne. Il se compose de deux sites :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_de_Coudehard-Montormel</t>
+          <t>Mémorial_de_Coudehard-Montormel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 6 juin 1944, lors du débarquement de Normandie, les Alliés ont entre autres comme objectif de prendre Caen très rapidement (le soir du 6 juin) ; mais la résistance allemande dans la région de Caen et dans les plaine de Caen et de Falaise repousse les Alliés.
 Ceux-ci se reportent alors sur le Cotentin et prennent le port de Cherbourg, vital, puis progressent vers le Sud durant l'été 1944 et se déroulent alors la bataille des Haies, l'opération Bluecoat et enfin la percée d'Avranches. Cette dernière autorise la libération de la Bretagne, de l'Anjou, et du Maine. Le Mans est finalement libérée le 8 août 1944, alors que le sud de la Basse-Normandie est toujours occupé par les Allemands...
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_de_Coudehard-Montormel</t>
+          <t>Mémorial_de_Coudehard-Montormel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Le monument extérieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue extérieure du mémorial.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_de_Coudehard-Montormel</t>
+          <t>Mémorial_de_Coudehard-Montormel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Le musée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L'entrée du mémorial.
